--- a/data/体温.xlsx
+++ b/data/体温.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\数据\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\panxuhao\Desktop\LixiangCar\working\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A6B5C58-F014-4EAE-86E6-8D3ABBE7D476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{330447C1-2662-4941-9F3C-F85ED10D52DF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="351">
   <si>
     <t>第一天2点</t>
   </si>
@@ -83,9 +83,6 @@
   </si>
   <si>
     <t>第四天10点</t>
-  </si>
-  <si>
-    <t>第四天14点第四天18点</t>
   </si>
   <si>
     <t>第四天22点</t>
@@ -1073,6 +1070,14 @@
   </si>
   <si>
     <t>庄娟娟</t>
+  </si>
+  <si>
+    <t>第四天14点</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四天18点</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1082,7 +1087,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1108,6 +1113,13 @@
       <name val="等线"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1129,12 +1141,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1595,28 +1608,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA327"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G281" workbookViewId="0">
-      <selection activeCell="Y290" sqref="Y290"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="AA5" sqref="AA5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="10.625" customWidth="1"/>
+    <col min="4" max="4" width="10.58203125" customWidth="1"/>
     <col min="5" max="5" width="9.75" customWidth="1"/>
-    <col min="6" max="6" width="9.875" customWidth="1"/>
+    <col min="6" max="6" width="9.83203125" customWidth="1"/>
     <col min="7" max="7" width="9.75" customWidth="1"/>
-    <col min="10" max="10" width="10.625" customWidth="1"/>
+    <col min="10" max="10" width="10.58203125" customWidth="1"/>
     <col min="11" max="11" width="9.5" customWidth="1"/>
     <col min="12" max="12" width="9.75" customWidth="1"/>
-    <col min="13" max="13" width="10.125" customWidth="1"/>
+    <col min="13" max="13" width="10.08203125" customWidth="1"/>
     <col min="16" max="16" width="12" customWidth="1"/>
-    <col min="17" max="18" width="9.625" customWidth="1"/>
+    <col min="17" max="18" width="9.58203125" customWidth="1"/>
     <col min="19" max="19" width="9.5" customWidth="1"/>
     <col min="23" max="23" width="10" customWidth="1"/>
     <col min="24" max="24" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1680,16 +1693,19 @@
       <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="Y1" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" t="s">
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>23</v>
       </c>
       <c r="B2">
         <v>36.700000000000003</v>
@@ -1764,9 +1780,9 @@
         <v>36.200000000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3">
         <v>36.6</v>
@@ -1799,10 +1815,10 @@
         <v>35</v>
       </c>
       <c r="L3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N3">
         <v>35.200000000000003</v>
@@ -1841,9 +1857,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4">
         <v>37.1</v>
@@ -1918,9 +1934,9 @@
         <v>35.9</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5">
         <v>38.1</v>
@@ -1971,7 +1987,7 @@
         <v>39.4</v>
       </c>
       <c r="R5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S5">
         <v>36.799999999999997</v>
@@ -1995,9 +2011,9 @@
         <v>36.4</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6">
         <v>37.9</v>
@@ -2072,9 +2088,9 @@
         <v>36.4</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7">
         <v>38.700000000000003</v>
@@ -2149,9 +2165,9 @@
         <v>36.4</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8">
         <v>36.1</v>
@@ -2214,21 +2230,21 @@
         <v>36.9</v>
       </c>
       <c r="V8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9">
         <v>36.5</v>
@@ -2303,9 +2319,9 @@
         <v>36.799999999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10">
         <v>36.5</v>
@@ -2371,18 +2387,18 @@
         <v>36.799999999999997</v>
       </c>
       <c r="W10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" s="1">
         <v>36</v>
@@ -2457,92 +2473,92 @@
         <v>36.6</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12">
+        <v>36</v>
+      </c>
+      <c r="F12">
+        <v>36</v>
+      </c>
+      <c r="G12">
+        <v>36</v>
+      </c>
+      <c r="H12">
+        <v>36</v>
+      </c>
+      <c r="I12">
+        <v>36</v>
+      </c>
+      <c r="J12" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" t="s">
+        <v>24</v>
+      </c>
+      <c r="M12" t="s">
+        <v>24</v>
+      </c>
+      <c r="N12" t="s">
+        <v>24</v>
+      </c>
+      <c r="O12" t="s">
+        <v>24</v>
+      </c>
+      <c r="P12" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R12" t="s">
+        <v>24</v>
+      </c>
+      <c r="S12" t="s">
+        <v>24</v>
+      </c>
+      <c r="T12" t="s">
+        <v>24</v>
+      </c>
+      <c r="U12" t="s">
+        <v>24</v>
+      </c>
+      <c r="V12" t="s">
+        <v>24</v>
+      </c>
+      <c r="W12" t="s">
+        <v>24</v>
+      </c>
+      <c r="X12" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>34</v>
       </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12">
-        <v>36</v>
-      </c>
-      <c r="F12">
-        <v>36</v>
-      </c>
-      <c r="G12">
-        <v>36</v>
-      </c>
-      <c r="H12">
-        <v>36</v>
-      </c>
-      <c r="I12">
-        <v>36</v>
-      </c>
-      <c r="J12" t="s">
-        <v>25</v>
-      </c>
-      <c r="K12" t="s">
-        <v>25</v>
-      </c>
-      <c r="L12" t="s">
-        <v>25</v>
-      </c>
-      <c r="M12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N12" t="s">
-        <v>25</v>
-      </c>
-      <c r="O12" t="s">
-        <v>25</v>
-      </c>
-      <c r="P12" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>25</v>
-      </c>
-      <c r="R12" t="s">
-        <v>25</v>
-      </c>
-      <c r="S12" t="s">
-        <v>25</v>
-      </c>
-      <c r="T12" t="s">
-        <v>25</v>
-      </c>
-      <c r="U12" t="s">
-        <v>25</v>
-      </c>
-      <c r="V12" t="s">
-        <v>25</v>
-      </c>
-      <c r="W12" t="s">
-        <v>25</v>
-      </c>
-      <c r="X12" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>35</v>
-      </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13">
         <v>35.9</v>
@@ -2605,15 +2621,15 @@
         <v>37</v>
       </c>
       <c r="X13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B14">
         <v>36.799999999999997</v>
@@ -2688,9 +2704,9 @@
         <v>36.700000000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B15">
         <v>36.799999999999997</v>
@@ -2762,12 +2778,12 @@
         <v>37</v>
       </c>
       <c r="Y15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B16">
         <v>36.799999999999997</v>
@@ -2842,9 +2858,9 @@
         <v>37.1</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B17">
         <v>37.700000000000003</v>
@@ -2916,12 +2932,12 @@
         <v>37.4</v>
       </c>
       <c r="Y17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B18">
         <v>36.799999999999997</v>
@@ -2993,18 +3009,18 @@
         <v>37.299999999999997</v>
       </c>
       <c r="Y18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19">
         <v>36.5</v>
@@ -3073,9 +3089,9 @@
         <v>36.6</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B20">
         <v>37.700000000000003</v>
@@ -3150,21 +3166,21 @@
         <v>37.1</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F21">
         <v>36.799999999999997</v>
@@ -3227,24 +3243,24 @@
         <v>36.4</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G22">
         <v>36.1</v>
@@ -3283,7 +3299,7 @@
         <v>36.799999999999997</v>
       </c>
       <c r="S22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T22">
         <v>36.700000000000003</v>
@@ -3304,9 +3320,9 @@
         <v>36.4</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B23">
         <v>36.5</v>
@@ -3381,9 +3397,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B24">
         <v>36.6</v>
@@ -3458,9 +3474,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B25">
         <v>40</v>
@@ -3496,48 +3512,48 @@
         <v>36.9</v>
       </c>
       <c r="M25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="V25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y25" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B26">
         <v>38.5</v>
@@ -3612,86 +3628,86 @@
         <v>36.6</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27">
+        <v>37</v>
+      </c>
+      <c r="C27">
+        <v>37</v>
+      </c>
+      <c r="D27">
+        <v>36.6</v>
+      </c>
+      <c r="E27">
+        <v>36.6</v>
+      </c>
+      <c r="F27">
+        <v>36.6</v>
+      </c>
+      <c r="G27">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="H27">
+        <v>36.6</v>
+      </c>
+      <c r="I27">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="J27">
+        <v>36.5</v>
+      </c>
+      <c r="K27">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="L27">
+        <v>36.6</v>
+      </c>
+      <c r="M27">
+        <v>36.6</v>
+      </c>
+      <c r="N27">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="O27">
+        <v>36.6</v>
+      </c>
+      <c r="P27">
+        <v>36</v>
+      </c>
+      <c r="Q27">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="R27">
+        <v>36.6</v>
+      </c>
+      <c r="S27">
+        <v>36.5</v>
+      </c>
+      <c r="T27">
+        <v>36.6</v>
+      </c>
+      <c r="U27">
+        <v>36.9</v>
+      </c>
+      <c r="V27">
+        <v>37</v>
+      </c>
+      <c r="W27">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="X27">
+        <v>36.6</v>
+      </c>
+      <c r="Y27">
+        <v>36.799999999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>49</v>
-      </c>
-      <c r="B27">
-        <v>37</v>
-      </c>
-      <c r="C27">
-        <v>37</v>
-      </c>
-      <c r="D27">
-        <v>36.6</v>
-      </c>
-      <c r="E27">
-        <v>36.6</v>
-      </c>
-      <c r="F27">
-        <v>36.6</v>
-      </c>
-      <c r="G27">
-        <v>36.700000000000003</v>
-      </c>
-      <c r="H27">
-        <v>36.6</v>
-      </c>
-      <c r="I27">
-        <v>36.700000000000003</v>
-      </c>
-      <c r="J27">
-        <v>36.5</v>
-      </c>
-      <c r="K27">
-        <v>36.799999999999997</v>
-      </c>
-      <c r="L27">
-        <v>36.6</v>
-      </c>
-      <c r="M27">
-        <v>36.6</v>
-      </c>
-      <c r="N27">
-        <v>36.700000000000003</v>
-      </c>
-      <c r="O27">
-        <v>36.6</v>
-      </c>
-      <c r="P27">
-        <v>36</v>
-      </c>
-      <c r="Q27">
-        <v>36.700000000000003</v>
-      </c>
-      <c r="R27">
-        <v>36.6</v>
-      </c>
-      <c r="S27">
-        <v>36.5</v>
-      </c>
-      <c r="T27">
-        <v>36.6</v>
-      </c>
-      <c r="U27">
-        <v>36.9</v>
-      </c>
-      <c r="V27">
-        <v>37</v>
-      </c>
-      <c r="W27">
-        <v>36.700000000000003</v>
-      </c>
-      <c r="X27">
-        <v>36.6</v>
-      </c>
-      <c r="Y27">
-        <v>36.799999999999997</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>50</v>
       </c>
       <c r="B28">
         <v>36.6</v>
@@ -3715,57 +3731,57 @@
         <v>36.200000000000003</v>
       </c>
       <c r="I28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y28" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B29">
         <v>36.700000000000003</v>
@@ -3840,9 +3856,9 @@
         <v>36.4</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B30">
         <v>35.799999999999997</v>
@@ -3917,9 +3933,9 @@
         <v>35.200000000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B31">
         <v>37.1</v>
@@ -3994,9 +4010,9 @@
         <v>37.299999999999997</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B32">
         <v>36.5</v>
@@ -4071,86 +4087,86 @@
         <v>36.700000000000003</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>54</v>
+      </c>
+      <c r="B33">
+        <v>36.4</v>
+      </c>
+      <c r="C33">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="D33">
+        <v>36.5</v>
+      </c>
+      <c r="E33">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="F33">
+        <v>36.4</v>
+      </c>
+      <c r="G33">
+        <v>36.4</v>
+      </c>
+      <c r="H33">
+        <v>36.5</v>
+      </c>
+      <c r="I33">
+        <v>36.6</v>
+      </c>
+      <c r="J33">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="K33" t="s">
+        <v>24</v>
+      </c>
+      <c r="L33" t="s">
+        <v>24</v>
+      </c>
+      <c r="M33" t="s">
+        <v>24</v>
+      </c>
+      <c r="N33" t="s">
+        <v>24</v>
+      </c>
+      <c r="O33" t="s">
+        <v>24</v>
+      </c>
+      <c r="P33" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>24</v>
+      </c>
+      <c r="R33" t="s">
+        <v>24</v>
+      </c>
+      <c r="S33" t="s">
+        <v>24</v>
+      </c>
+      <c r="T33" t="s">
+        <v>24</v>
+      </c>
+      <c r="U33" t="s">
+        <v>24</v>
+      </c>
+      <c r="V33" t="s">
+        <v>24</v>
+      </c>
+      <c r="W33" t="s">
+        <v>24</v>
+      </c>
+      <c r="X33" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>55</v>
-      </c>
-      <c r="B33">
-        <v>36.4</v>
-      </c>
-      <c r="C33">
-        <v>36.799999999999997</v>
-      </c>
-      <c r="D33">
-        <v>36.5</v>
-      </c>
-      <c r="E33">
-        <v>36.700000000000003</v>
-      </c>
-      <c r="F33">
-        <v>36.4</v>
-      </c>
-      <c r="G33">
-        <v>36.4</v>
-      </c>
-      <c r="H33">
-        <v>36.5</v>
-      </c>
-      <c r="I33">
-        <v>36.6</v>
-      </c>
-      <c r="J33">
-        <v>36.799999999999997</v>
-      </c>
-      <c r="K33" t="s">
-        <v>25</v>
-      </c>
-      <c r="L33" t="s">
-        <v>25</v>
-      </c>
-      <c r="M33" t="s">
-        <v>25</v>
-      </c>
-      <c r="N33" t="s">
-        <v>25</v>
-      </c>
-      <c r="O33" t="s">
-        <v>25</v>
-      </c>
-      <c r="P33" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>25</v>
-      </c>
-      <c r="R33" t="s">
-        <v>25</v>
-      </c>
-      <c r="S33" t="s">
-        <v>25</v>
-      </c>
-      <c r="T33" t="s">
-        <v>25</v>
-      </c>
-      <c r="U33" t="s">
-        <v>25</v>
-      </c>
-      <c r="V33" t="s">
-        <v>25</v>
-      </c>
-      <c r="W33" t="s">
-        <v>25</v>
-      </c>
-      <c r="X33" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>56</v>
       </c>
       <c r="B34">
         <v>36.799999999999997</v>
@@ -4225,9 +4241,9 @@
         <v>36.9</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B35">
         <v>37.1</v>
@@ -4251,10 +4267,10 @@
         <v>35</v>
       </c>
       <c r="I35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K35">
         <v>35.1</v>
@@ -4275,10 +4291,10 @@
         <v>35</v>
       </c>
       <c r="Q35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S35">
         <v>36</v>
@@ -4302,9 +4318,9 @@
         <v>37.4</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B36">
         <v>37.1</v>
@@ -4379,9 +4395,9 @@
         <v>37.700000000000003</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B37">
         <v>36.6</v>
@@ -4456,9 +4472,9 @@
         <v>36.4</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B38">
         <v>38.5</v>
@@ -4533,9 +4549,9 @@
         <v>36.9</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B39">
         <v>38.700000000000003</v>
@@ -4610,9 +4626,9 @@
         <v>36.700000000000003</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B40">
         <v>40</v>
@@ -4687,9 +4703,9 @@
         <v>38.200000000000003</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B41">
         <v>37</v>
@@ -4764,9 +4780,9 @@
         <v>37.200000000000003</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B42">
         <v>35.6</v>
@@ -4841,9 +4857,9 @@
         <v>36.4</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B43">
         <v>37.6</v>
@@ -4918,9 +4934,9 @@
         <v>36.799999999999997</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B44">
         <v>37</v>
@@ -4995,9 +5011,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B45">
         <v>36.6</v>
@@ -5072,9 +5088,9 @@
         <v>37.799999999999997</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B46">
         <v>36.799999999999997</v>
@@ -5107,51 +5123,51 @@
         <v>36.700000000000003</v>
       </c>
       <c r="L46" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M46" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N46" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O46" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P46" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q46" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R46" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S46" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T46" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U46" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="V46" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W46" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X46" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y46" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B47">
         <v>35.1</v>
@@ -5226,9 +5242,9 @@
         <v>36.5</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B48">
         <v>37</v>
@@ -5303,9 +5319,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B49">
         <v>36.5</v>
@@ -5380,9 +5396,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B50">
         <v>36.700000000000003</v>
@@ -5457,9 +5473,9 @@
         <v>36.4</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B51">
         <v>37.799999999999997</v>
@@ -5483,60 +5499,60 @@
         <v>36.9</v>
       </c>
       <c r="I51" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J51" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K51" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L51" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M51" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N51" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O51" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P51" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q51" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R51" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S51" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T51" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U51" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="V51" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W51" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X51" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y51" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B52">
         <v>36</v>
@@ -5608,12 +5624,12 @@
         <v>36.700000000000003</v>
       </c>
       <c r="Y52" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B53">
         <v>36.799999999999997</v>
@@ -5643,54 +5659,54 @@
         <v>37.9</v>
       </c>
       <c r="K53" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L53" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M53" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N53" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O53" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P53" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q53" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R53" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S53" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T53" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U53" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="V53" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W53" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X53" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y53" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B54">
         <v>38.4</v>
@@ -5765,9 +5781,9 @@
         <v>36.299999999999997</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B55">
         <v>37.1</v>
@@ -5842,9 +5858,9 @@
         <v>37.299999999999997</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B56">
         <v>36.700000000000003</v>
@@ -5871,10 +5887,10 @@
         <v>35</v>
       </c>
       <c r="J56" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K56" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L56">
         <v>35.5</v>
@@ -5919,9 +5935,9 @@
         <v>36.9</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B57">
         <v>36.1</v>
@@ -5996,9 +6012,9 @@
         <v>36.299999999999997</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B58">
         <v>36.299999999999997</v>
@@ -6073,9 +6089,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B59">
         <v>36.299999999999997</v>
@@ -6129,30 +6145,30 @@
         <v>38.200000000000003</v>
       </c>
       <c r="S59" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T59" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U59" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="V59" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W59" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X59" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y59" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B60">
         <v>36.6</v>
@@ -6227,9 +6243,9 @@
         <v>36.700000000000003</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B61">
         <v>36.799999999999997</v>
@@ -6304,9 +6320,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B62">
         <v>36.200000000000003</v>
@@ -6381,9 +6397,9 @@
         <v>36.6</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B63">
         <v>36.6</v>
@@ -6458,9 +6474,9 @@
         <v>36.4</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B64">
         <v>36.9</v>
@@ -6499,45 +6515,45 @@
         <v>37.200000000000003</v>
       </c>
       <c r="N64" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O64" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P64" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q64" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R64" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S64" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T64" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U64" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="V64" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W64" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X64" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y64" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="65" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B65">
         <v>36.6</v>
@@ -6612,9 +6628,9 @@
         <v>36.6</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B66">
         <v>37.299999999999997</v>
@@ -6689,160 +6705,160 @@
         <v>36.6</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
+        <v>88</v>
+      </c>
+      <c r="B67">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="C67">
+        <v>37</v>
+      </c>
+      <c r="D67">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="E67">
+        <v>37</v>
+      </c>
+      <c r="F67">
+        <v>37.1</v>
+      </c>
+      <c r="G67">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="H67">
+        <v>37</v>
+      </c>
+      <c r="I67">
+        <v>36.5</v>
+      </c>
+      <c r="J67">
+        <v>36.6</v>
+      </c>
+      <c r="K67">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="L67">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="M67">
+        <v>37</v>
+      </c>
+      <c r="N67">
+        <v>36.9</v>
+      </c>
+      <c r="O67">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="P67">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="Q67">
+        <v>37</v>
+      </c>
+      <c r="R67">
+        <v>37</v>
+      </c>
+      <c r="S67">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="T67">
+        <v>36.5</v>
+      </c>
+      <c r="U67">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="V67">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="W67">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="X67">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="Y67">
+        <v>36.700000000000003</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
         <v>89</v>
       </c>
-      <c r="B67">
-        <v>36.700000000000003</v>
-      </c>
-      <c r="C67">
-        <v>37</v>
-      </c>
-      <c r="D67">
-        <v>36.799999999999997</v>
-      </c>
-      <c r="E67">
-        <v>37</v>
-      </c>
-      <c r="F67">
-        <v>37.1</v>
-      </c>
-      <c r="G67">
-        <v>36.799999999999997</v>
-      </c>
-      <c r="H67">
-        <v>37</v>
-      </c>
-      <c r="I67">
-        <v>36.5</v>
-      </c>
-      <c r="J67">
-        <v>36.6</v>
-      </c>
-      <c r="K67">
-        <v>36.799999999999997</v>
-      </c>
-      <c r="L67">
-        <v>36.799999999999997</v>
-      </c>
-      <c r="M67">
-        <v>37</v>
-      </c>
-      <c r="N67">
-        <v>36.9</v>
-      </c>
-      <c r="O67">
-        <v>36.700000000000003</v>
-      </c>
-      <c r="P67">
-        <v>36.799999999999997</v>
-      </c>
-      <c r="Q67">
-        <v>37</v>
-      </c>
-      <c r="R67">
-        <v>37</v>
-      </c>
-      <c r="S67">
-        <v>36.700000000000003</v>
-      </c>
-      <c r="T67">
-        <v>36.5</v>
-      </c>
-      <c r="U67">
-        <v>36.799999999999997</v>
-      </c>
-      <c r="V67">
-        <v>36.700000000000003</v>
-      </c>
-      <c r="W67">
-        <v>36.700000000000003</v>
-      </c>
-      <c r="X67">
-        <v>36.799999999999997</v>
-      </c>
-      <c r="Y67">
-        <v>36.700000000000003</v>
-      </c>
-    </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
+      <c r="B68">
+        <v>36.6</v>
+      </c>
+      <c r="C68">
+        <v>36.6</v>
+      </c>
+      <c r="D68">
+        <v>36.5</v>
+      </c>
+      <c r="E68">
+        <v>36.5</v>
+      </c>
+      <c r="F68">
+        <v>36.5</v>
+      </c>
+      <c r="G68">
+        <v>36.4</v>
+      </c>
+      <c r="H68" t="s">
+        <v>24</v>
+      </c>
+      <c r="I68" t="s">
+        <v>24</v>
+      </c>
+      <c r="J68" t="s">
+        <v>24</v>
+      </c>
+      <c r="K68" t="s">
+        <v>24</v>
+      </c>
+      <c r="L68" t="s">
+        <v>24</v>
+      </c>
+      <c r="M68" t="s">
+        <v>24</v>
+      </c>
+      <c r="N68" t="s">
+        <v>24</v>
+      </c>
+      <c r="O68" t="s">
+        <v>24</v>
+      </c>
+      <c r="P68" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>24</v>
+      </c>
+      <c r="R68" t="s">
+        <v>24</v>
+      </c>
+      <c r="S68" t="s">
+        <v>24</v>
+      </c>
+      <c r="T68" t="s">
+        <v>24</v>
+      </c>
+      <c r="U68" t="s">
+        <v>24</v>
+      </c>
+      <c r="V68" t="s">
+        <v>24</v>
+      </c>
+      <c r="X68" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="69" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
         <v>90</v>
-      </c>
-      <c r="B68">
-        <v>36.6</v>
-      </c>
-      <c r="C68">
-        <v>36.6</v>
-      </c>
-      <c r="D68">
-        <v>36.5</v>
-      </c>
-      <c r="E68">
-        <v>36.5</v>
-      </c>
-      <c r="F68">
-        <v>36.5</v>
-      </c>
-      <c r="G68">
-        <v>36.4</v>
-      </c>
-      <c r="H68" t="s">
-        <v>25</v>
-      </c>
-      <c r="I68" t="s">
-        <v>25</v>
-      </c>
-      <c r="J68" t="s">
-        <v>25</v>
-      </c>
-      <c r="K68" t="s">
-        <v>25</v>
-      </c>
-      <c r="L68" t="s">
-        <v>25</v>
-      </c>
-      <c r="M68" t="s">
-        <v>25</v>
-      </c>
-      <c r="N68" t="s">
-        <v>25</v>
-      </c>
-      <c r="O68" t="s">
-        <v>25</v>
-      </c>
-      <c r="P68" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q68" t="s">
-        <v>25</v>
-      </c>
-      <c r="R68" t="s">
-        <v>25</v>
-      </c>
-      <c r="S68" t="s">
-        <v>25</v>
-      </c>
-      <c r="T68" t="s">
-        <v>25</v>
-      </c>
-      <c r="U68" t="s">
-        <v>25</v>
-      </c>
-      <c r="V68" t="s">
-        <v>25</v>
-      </c>
-      <c r="X68" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y68" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>91</v>
       </c>
       <c r="B69">
         <v>38.1</v>
@@ -6917,9 +6933,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B70">
         <v>36.799999999999997</v>
@@ -6994,9 +7010,9 @@
         <v>36.4</v>
       </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B71">
         <v>36.299999999999997</v>
@@ -7071,9 +7087,9 @@
         <v>36.700000000000003</v>
       </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B72">
         <v>37</v>
@@ -7148,9 +7164,9 @@
         <v>36.9</v>
       </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B73">
         <v>37</v>
@@ -7207,27 +7223,27 @@
         <v>36.5</v>
       </c>
       <c r="T73" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U73" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="V73" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W73" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X73" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y73" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="74" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B74">
         <v>36.799999999999997</v>
@@ -7302,9 +7318,9 @@
         <v>37.4</v>
       </c>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B75">
         <v>36.200000000000003</v>
@@ -7379,9 +7395,9 @@
         <v>36.5</v>
       </c>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B76">
         <v>36.5</v>
@@ -7414,51 +7430,51 @@
         <v>36.6</v>
       </c>
       <c r="L76" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M76" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N76" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O76" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P76" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q76" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R76" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S76" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T76" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U76" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="V76" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W76" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X76" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y76" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="77" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B77">
         <v>36.799999999999997</v>
@@ -7497,45 +7513,45 @@
         <v>36.799999999999997</v>
       </c>
       <c r="N77" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O77" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P77" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q77" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R77" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S77" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T77" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U77" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="V77" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W77" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X77" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y77" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="78" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B78">
         <v>37.799999999999997</v>
@@ -7568,51 +7584,51 @@
         <v>38.1</v>
       </c>
       <c r="L78" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M78" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N78" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O78" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P78" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q78" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R78" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S78" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T78" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U78" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="V78" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W78" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X78" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y78" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="79" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B79">
         <v>37.200000000000003</v>
@@ -7687,9 +7703,9 @@
         <v>36.4</v>
       </c>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B80">
         <v>38.9</v>
@@ -7764,9 +7780,9 @@
         <v>36.6</v>
       </c>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B81">
         <v>35.5</v>
@@ -7814,113 +7830,113 @@
         <v>36.799999999999997</v>
       </c>
       <c r="Q81" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R81" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S81" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T81" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U81" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="V81" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W81" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X81" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y81" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="82" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
+        <v>102</v>
+      </c>
+      <c r="B82">
+        <v>37</v>
+      </c>
+      <c r="C82">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="D82">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="E82">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="F82">
+        <v>36.5</v>
+      </c>
+      <c r="G82">
+        <v>36.6</v>
+      </c>
+      <c r="H82">
+        <v>37</v>
+      </c>
+      <c r="I82" t="s">
+        <v>24</v>
+      </c>
+      <c r="J82" t="s">
+        <v>24</v>
+      </c>
+      <c r="K82" t="s">
+        <v>24</v>
+      </c>
+      <c r="L82" t="s">
+        <v>24</v>
+      </c>
+      <c r="M82" t="s">
+        <v>24</v>
+      </c>
+      <c r="N82" t="s">
+        <v>24</v>
+      </c>
+      <c r="O82" t="s">
+        <v>24</v>
+      </c>
+      <c r="P82" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>24</v>
+      </c>
+      <c r="R82" t="s">
+        <v>24</v>
+      </c>
+      <c r="S82" t="s">
+        <v>24</v>
+      </c>
+      <c r="T82" t="s">
+        <v>24</v>
+      </c>
+      <c r="U82" t="s">
+        <v>24</v>
+      </c>
+      <c r="V82" t="s">
+        <v>24</v>
+      </c>
+      <c r="W82" t="s">
+        <v>24</v>
+      </c>
+      <c r="X82" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="83" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
         <v>103</v>
-      </c>
-      <c r="B82">
-        <v>37</v>
-      </c>
-      <c r="C82">
-        <v>36.700000000000003</v>
-      </c>
-      <c r="D82">
-        <v>36.700000000000003</v>
-      </c>
-      <c r="E82">
-        <v>36.799999999999997</v>
-      </c>
-      <c r="F82">
-        <v>36.5</v>
-      </c>
-      <c r="G82">
-        <v>36.6</v>
-      </c>
-      <c r="H82">
-        <v>37</v>
-      </c>
-      <c r="I82" t="s">
-        <v>25</v>
-      </c>
-      <c r="J82" t="s">
-        <v>25</v>
-      </c>
-      <c r="K82" t="s">
-        <v>25</v>
-      </c>
-      <c r="L82" t="s">
-        <v>25</v>
-      </c>
-      <c r="M82" t="s">
-        <v>25</v>
-      </c>
-      <c r="N82" t="s">
-        <v>25</v>
-      </c>
-      <c r="O82" t="s">
-        <v>25</v>
-      </c>
-      <c r="P82" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q82" t="s">
-        <v>25</v>
-      </c>
-      <c r="R82" t="s">
-        <v>25</v>
-      </c>
-      <c r="S82" t="s">
-        <v>25</v>
-      </c>
-      <c r="T82" t="s">
-        <v>25</v>
-      </c>
-      <c r="U82" t="s">
-        <v>25</v>
-      </c>
-      <c r="V82" t="s">
-        <v>25</v>
-      </c>
-      <c r="W82" t="s">
-        <v>25</v>
-      </c>
-      <c r="X82" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y82" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>104</v>
       </c>
       <c r="B83">
         <v>36.4</v>
@@ -7995,9 +8011,9 @@
         <v>36.799999999999997</v>
       </c>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B84">
         <v>36.4</v>
@@ -8072,9 +8088,9 @@
         <v>36.6</v>
       </c>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B85">
         <v>36.799999999999997</v>
@@ -8140,18 +8156,18 @@
         <v>37</v>
       </c>
       <c r="W85" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X85" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y85" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="86" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B86">
         <v>36.9</v>
@@ -8226,9 +8242,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B87">
         <v>37.6</v>
@@ -8282,30 +8298,30 @@
         <v>36.6</v>
       </c>
       <c r="S87" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T87" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U87" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="V87" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W87" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X87" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y87" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="88" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B88">
         <v>36.200000000000003</v>
@@ -8380,9 +8396,9 @@
         <v>36.6</v>
       </c>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B89">
         <v>37.1</v>
@@ -8457,9 +8473,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B90">
         <v>37.299999999999997</v>
@@ -8534,9 +8550,9 @@
         <v>37.6</v>
       </c>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B91">
         <v>36.799999999999997</v>
@@ -8611,9 +8627,9 @@
         <v>36.9</v>
       </c>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B92">
         <v>36.9</v>
@@ -8688,9 +8704,9 @@
         <v>36.700000000000003</v>
       </c>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B93">
         <v>37.299999999999997</v>
@@ -8765,9 +8781,9 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B94">
         <v>36.6</v>
@@ -8842,9 +8858,9 @@
         <v>36.6</v>
       </c>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B95">
         <v>36.799999999999997</v>
@@ -8919,9 +8935,9 @@
         <v>36.200000000000003</v>
       </c>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B96">
         <v>37.200000000000003</v>
@@ -8996,9 +9012,9 @@
         <v>38.9</v>
       </c>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B97">
         <v>37</v>
@@ -9073,9 +9089,9 @@
         <v>37.6</v>
       </c>
     </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B98">
         <v>36.4</v>
@@ -9150,9 +9166,9 @@
         <v>36.299999999999997</v>
       </c>
     </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B99">
         <v>37</v>
@@ -9227,9 +9243,9 @@
         <v>37.799999999999997</v>
       </c>
     </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B100">
         <v>36.799999999999997</v>
@@ -9304,9 +9320,9 @@
         <v>36.5</v>
       </c>
     </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B101">
         <v>36.5</v>
@@ -9381,9 +9397,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B102">
         <v>37.200000000000003</v>
@@ -9422,45 +9438,45 @@
         <v>38.4</v>
       </c>
       <c r="N102" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O102" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P102" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q102" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R102" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S102" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T102" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U102" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="V102" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W102" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X102" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y102" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="103" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B103">
         <v>36.799999999999997</v>
@@ -9514,30 +9530,30 @@
         <v>35.299999999999997</v>
       </c>
       <c r="S103" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T103" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U103" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="V103" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W103" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X103" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y103" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="104" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B104">
         <v>36.9</v>
@@ -9612,9 +9628,9 @@
         <v>38.799999999999997</v>
       </c>
     </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B105">
         <v>38.5</v>
@@ -9689,9 +9705,9 @@
         <v>36.6</v>
       </c>
     </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B106">
         <v>36.299999999999997</v>
@@ -9766,9 +9782,9 @@
         <v>36.6</v>
       </c>
     </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B107">
         <v>36.6</v>
@@ -9843,9 +9859,9 @@
         <v>36.6</v>
       </c>
     </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B108">
         <v>36.1</v>
@@ -9920,9 +9936,9 @@
         <v>36.5</v>
       </c>
     </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B109">
         <v>38.4</v>
@@ -9997,9 +10013,9 @@
         <v>36.6</v>
       </c>
     </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B110">
         <v>35.9</v>
@@ -10074,9 +10090,9 @@
         <v>36.9</v>
       </c>
     </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B111">
         <v>36.299999999999997</v>
@@ -10151,9 +10167,9 @@
         <v>37.4</v>
       </c>
     </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B112">
         <v>36.200000000000003</v>
@@ -10177,60 +10193,60 @@
         <v>39</v>
       </c>
       <c r="I112" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J112" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K112" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L112" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M112" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N112" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O112" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P112" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q112" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R112" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S112" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T112" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U112" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="V112" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W112" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X112" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y112" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="113" spans="1:25" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="113" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B113">
         <v>37</v>
@@ -10305,9 +10321,9 @@
         <v>36.4</v>
       </c>
     </row>
-    <row r="114" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B114">
         <v>36.200000000000003</v>
@@ -10367,24 +10383,24 @@
         <v>36.700000000000003</v>
       </c>
       <c r="U114" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="V114" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W114" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X114" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y114" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="115" spans="1:25" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="115" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B115">
         <v>35.4</v>
@@ -10459,9 +10475,9 @@
         <v>36.4</v>
       </c>
     </row>
-    <row r="116" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B116">
         <v>37.5</v>
@@ -10536,9 +10552,9 @@
         <v>37.4</v>
       </c>
     </row>
-    <row r="117" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B117">
         <v>37.4</v>
@@ -10613,9 +10629,9 @@
         <v>38.9</v>
       </c>
     </row>
-    <row r="118" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B118">
         <v>37.700000000000003</v>
@@ -10690,9 +10706,9 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="119" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B119">
         <v>36.5</v>
@@ -10743,33 +10759,33 @@
         <v>34.200000000000003</v>
       </c>
       <c r="R119" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S119" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T119" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U119" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="V119" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W119" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X119" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y119" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="120" spans="1:25" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="120" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B120">
         <v>36</v>
@@ -10844,9 +10860,9 @@
         <v>36.4</v>
       </c>
     </row>
-    <row r="121" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B121">
         <v>37.6</v>
@@ -10891,39 +10907,39 @@
         <v>38.6</v>
       </c>
       <c r="P121" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q121" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R121" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S121" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T121" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U121" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="V121" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W121" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X121" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y121" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="122" spans="1:25" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="122" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B122">
         <v>38.1</v>
@@ -10998,9 +11014,9 @@
         <v>37.6</v>
       </c>
     </row>
-    <row r="123" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B123">
         <v>36.5</v>
@@ -11075,9 +11091,9 @@
         <v>36.6</v>
       </c>
     </row>
-    <row r="124" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B124">
         <v>37</v>
@@ -11152,9 +11168,9 @@
         <v>34.799999999999997</v>
       </c>
     </row>
-    <row r="125" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B125">
         <v>37</v>
@@ -11229,9 +11245,9 @@
         <v>36.6</v>
       </c>
     </row>
-    <row r="126" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B126">
         <v>36.9</v>
@@ -11288,27 +11304,27 @@
         <v>37.299999999999997</v>
       </c>
       <c r="T126" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U126" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="V126" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W126" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X126" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y126" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="127" spans="1:25" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="127" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B127">
         <v>36.5</v>
@@ -11383,9 +11399,9 @@
         <v>36.1</v>
       </c>
     </row>
-    <row r="128" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B128">
         <v>36.700000000000003</v>
@@ -11460,9 +11476,9 @@
         <v>36.5</v>
       </c>
     </row>
-    <row r="129" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B129">
         <v>39.700000000000003</v>
@@ -11537,9 +11553,9 @@
         <v>38.299999999999997</v>
       </c>
     </row>
-    <row r="130" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B130">
         <v>35.299999999999997</v>
@@ -11614,9 +11630,9 @@
         <v>36.6</v>
       </c>
     </row>
-    <row r="131" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B131">
         <v>37.5</v>
@@ -11691,9 +11707,9 @@
         <v>37.799999999999997</v>
       </c>
     </row>
-    <row r="132" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B132">
         <v>37.200000000000003</v>
@@ -11768,9 +11784,9 @@
         <v>36.6</v>
       </c>
     </row>
-    <row r="133" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B133">
         <v>37.700000000000003</v>
@@ -11845,12 +11861,12 @@
         <v>37.200000000000003</v>
       </c>
       <c r="AA133" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="134" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
         <v>155</v>
-      </c>
-    </row>
-    <row r="134" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
-        <v>156</v>
       </c>
       <c r="B134">
         <v>37.4</v>
@@ -11925,9 +11941,9 @@
         <v>37.799999999999997</v>
       </c>
     </row>
-    <row r="135" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B135">
         <v>37.799999999999997</v>
@@ -11999,12 +12015,12 @@
         <v>36.5</v>
       </c>
       <c r="Y135" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="136" spans="1:27" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="136" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B136">
         <v>34.299999999999997</v>
@@ -12079,9 +12095,9 @@
         <v>37.200000000000003</v>
       </c>
     </row>
-    <row r="137" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B137">
         <v>37.200000000000003</v>
@@ -12156,9 +12172,9 @@
         <v>36.799999999999997</v>
       </c>
     </row>
-    <row r="138" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B138">
         <v>37.799999999999997</v>
@@ -12233,9 +12249,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="139" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B139">
         <v>36.6</v>
@@ -12310,9 +12326,9 @@
         <v>34.5</v>
       </c>
     </row>
-    <row r="140" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B140">
         <v>36.200000000000003</v>
@@ -12387,9 +12403,9 @@
         <v>36.799999999999997</v>
       </c>
     </row>
-    <row r="141" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B141">
         <v>37</v>
@@ -12464,9 +12480,9 @@
         <v>37.200000000000003</v>
       </c>
     </row>
-    <row r="142" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B142">
         <v>37.200000000000003</v>
@@ -12541,9 +12557,9 @@
         <v>37.6</v>
       </c>
     </row>
-    <row r="143" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B143">
         <v>36.1</v>
@@ -12582,45 +12598,45 @@
         <v>37.5</v>
       </c>
       <c r="N143" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O143" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P143" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q143" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R143" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S143" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T143" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U143" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="V143" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W143" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X143" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y143" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="144" spans="1:27" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="144" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B144">
         <v>37.6</v>
@@ -12695,9 +12711,9 @@
         <v>36.9</v>
       </c>
     </row>
-    <row r="145" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B145">
         <v>38.700000000000003</v>
@@ -12772,9 +12788,9 @@
         <v>37.4</v>
       </c>
     </row>
-    <row r="146" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B146">
         <v>37</v>
@@ -12849,9 +12865,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="147" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B147">
         <v>36.4</v>
@@ -12905,30 +12921,30 @@
         <v>36.5</v>
       </c>
       <c r="S147" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T147" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U147" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="V147" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W147" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X147" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y147" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="148" spans="1:25" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="148" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B148">
         <v>37.299999999999997</v>
@@ -13003,9 +13019,9 @@
         <v>37.799999999999997</v>
       </c>
     </row>
-    <row r="149" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B149">
         <v>37.700000000000003</v>
@@ -13080,9 +13096,9 @@
         <v>36.700000000000003</v>
       </c>
     </row>
-    <row r="150" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B150">
         <v>35</v>
@@ -13157,9 +13173,9 @@
         <v>36.5</v>
       </c>
     </row>
-    <row r="151" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B151">
         <v>39.200000000000003</v>
@@ -13234,9 +13250,9 @@
         <v>39.299999999999997</v>
       </c>
     </row>
-    <row r="152" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B152">
         <v>38.4</v>
@@ -13311,9 +13327,9 @@
         <v>36.5</v>
       </c>
     </row>
-    <row r="153" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B153">
         <v>37.1</v>
@@ -13346,51 +13362,51 @@
         <v>36</v>
       </c>
       <c r="L153" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M153" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N153" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O153" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P153" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q153" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R153" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S153" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T153" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U153" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="V153" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W153" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X153" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y153" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="154" spans="1:25" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="154" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B154">
         <v>37.299999999999997</v>
@@ -13465,9 +13481,9 @@
         <v>36.799999999999997</v>
       </c>
     </row>
-    <row r="155" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B155">
         <v>35.200000000000003</v>
@@ -13509,42 +13525,42 @@
         <v>34.799999999999997</v>
       </c>
       <c r="O155" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P155" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q155" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R155" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S155" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T155" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U155" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="V155" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W155" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X155" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y155" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="156" spans="1:25" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="156" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B156">
         <v>36.1</v>
@@ -13619,9 +13635,9 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="157" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B157">
         <v>36.9</v>
@@ -13696,9 +13712,9 @@
         <v>36.700000000000003</v>
       </c>
     </row>
-    <row r="158" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B158">
         <v>36</v>
@@ -13773,9 +13789,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="159" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B159">
         <v>36.6</v>
@@ -13823,36 +13839,36 @@
         <v>37</v>
       </c>
       <c r="Q159" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R159" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S159" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T159" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U159" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="V159" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W159" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X159" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y159" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="160" spans="1:25" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="160" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B160">
         <v>37.5</v>
@@ -13927,9 +13943,9 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="161" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B161">
         <v>36.9</v>
@@ -14001,12 +14017,12 @@
         <v>37.1</v>
       </c>
       <c r="Y161" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="162" spans="1:25" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="162" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B162">
         <v>36.5</v>
@@ -14069,21 +14085,21 @@
         <v>36.299999999999997</v>
       </c>
       <c r="V162" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W162" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X162" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y162" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="163" spans="1:25" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="163" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B163">
         <v>37.799999999999997</v>
@@ -14158,9 +14174,9 @@
         <v>37.1</v>
       </c>
     </row>
-    <row r="164" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B164">
         <v>36.6</v>
@@ -14235,9 +14251,9 @@
         <v>36.799999999999997</v>
       </c>
     </row>
-    <row r="165" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B165">
         <v>35.799999999999997</v>
@@ -14312,9 +14328,9 @@
         <v>37.6</v>
       </c>
     </row>
-    <row r="166" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B166">
         <v>36.299999999999997</v>
@@ -14389,9 +14405,9 @@
         <v>37.9</v>
       </c>
     </row>
-    <row r="167" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B167">
         <v>37.799999999999997</v>
@@ -14466,9 +14482,9 @@
         <v>36.299999999999997</v>
       </c>
     </row>
-    <row r="168" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B168">
         <v>36</v>
@@ -14543,9 +14559,9 @@
         <v>36.299999999999997</v>
       </c>
     </row>
-    <row r="169" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B169">
         <v>36.700000000000003</v>
@@ -14620,9 +14636,9 @@
         <v>36.9</v>
       </c>
     </row>
-    <row r="170" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B170">
         <v>36.299999999999997</v>
@@ -14634,7 +14650,7 @@
         <v>36.1</v>
       </c>
       <c r="E170" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F170">
         <v>36.9</v>
@@ -14697,9 +14713,9 @@
         <v>36.299999999999997</v>
       </c>
     </row>
-    <row r="171" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B171">
         <v>38.1</v>
@@ -14774,9 +14790,9 @@
         <v>36.799999999999997</v>
       </c>
     </row>
-    <row r="172" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B172">
         <v>36</v>
@@ -14851,9 +14867,9 @@
         <v>38.1</v>
       </c>
     </row>
-    <row r="173" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B173">
         <v>36.9</v>
@@ -14928,9 +14944,9 @@
         <v>37.200000000000003</v>
       </c>
     </row>
-    <row r="174" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B174">
         <v>36.799999999999997</v>
@@ -14963,51 +14979,51 @@
         <v>35</v>
       </c>
       <c r="L174" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M174" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N174" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O174" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P174" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q174" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R174" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S174" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T174" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U174" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="V174" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W174" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X174" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y174" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="175" spans="1:25" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="175" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B175">
         <v>37.200000000000003</v>
@@ -15082,9 +15098,9 @@
         <v>38.700000000000003</v>
       </c>
     </row>
-    <row r="176" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B176">
         <v>37.6</v>
@@ -15159,9 +15175,9 @@
         <v>36.5</v>
       </c>
     </row>
-    <row r="177" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B177">
         <v>37</v>
@@ -15236,9 +15252,9 @@
         <v>36.5</v>
       </c>
     </row>
-    <row r="178" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B178">
         <v>36.6</v>
@@ -15313,9 +15329,9 @@
         <v>36.4</v>
       </c>
     </row>
-    <row r="179" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B179">
         <v>36.5</v>
@@ -15390,9 +15406,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="180" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B180">
         <v>36.4</v>
@@ -15449,27 +15465,27 @@
         <v>37.799999999999997</v>
       </c>
       <c r="T180" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U180" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="V180" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W180" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X180" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y180" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="181" spans="1:25" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="181" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B181">
         <v>38.1</v>
@@ -15544,9 +15560,9 @@
         <v>37.4</v>
       </c>
     </row>
-    <row r="182" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B182">
         <v>36.700000000000003</v>
@@ -15621,9 +15637,9 @@
         <v>36.200000000000003</v>
       </c>
     </row>
-    <row r="183" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B183">
         <v>36.9</v>
@@ -15698,9 +15714,9 @@
         <v>36.6</v>
       </c>
     </row>
-    <row r="184" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B184">
         <v>37.299999999999997</v>
@@ -15775,9 +15791,9 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="185" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B185">
         <v>36.799999999999997</v>
@@ -15852,9 +15868,9 @@
         <v>36.799999999999997</v>
       </c>
     </row>
-    <row r="186" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B186">
         <v>37.1</v>
@@ -15929,9 +15945,9 @@
         <v>36.5</v>
       </c>
     </row>
-    <row r="187" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B187">
         <v>37.200000000000003</v>
@@ -16006,9 +16022,9 @@
         <v>38.799999999999997</v>
       </c>
     </row>
-    <row r="188" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B188">
         <v>36.700000000000003</v>
@@ -16083,9 +16099,9 @@
         <v>36.799999999999997</v>
       </c>
     </row>
-    <row r="189" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B189">
         <v>36.4</v>
@@ -16160,9 +16176,9 @@
         <v>36.6</v>
       </c>
     </row>
-    <row r="190" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B190">
         <v>36.6</v>
@@ -16237,9 +16253,9 @@
         <v>36.200000000000003</v>
       </c>
     </row>
-    <row r="191" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B191">
         <v>36.200000000000003</v>
@@ -16314,9 +16330,9 @@
         <v>36.799999999999997</v>
       </c>
     </row>
-    <row r="192" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B192">
         <v>36.799999999999997</v>
@@ -16391,9 +16407,9 @@
         <v>36.200000000000003</v>
       </c>
     </row>
-    <row r="193" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B193">
         <v>36.200000000000003</v>
@@ -16468,9 +16484,9 @@
         <v>37.9</v>
       </c>
     </row>
-    <row r="194" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B194">
         <v>37.4</v>
@@ -16545,9 +16561,9 @@
         <v>36.1</v>
       </c>
     </row>
-    <row r="195" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B195">
         <v>35.1</v>
@@ -16622,9 +16638,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="196" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B196">
         <v>38.299999999999997</v>
@@ -16678,9 +16694,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="197" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A197" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B197">
         <v>34.5</v>
@@ -16752,9 +16768,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="198" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A198" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B198">
         <v>34.5</v>
@@ -16829,9 +16845,9 @@
         <v>36.799999999999997</v>
       </c>
     </row>
-    <row r="199" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A199" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B199">
         <v>36.200000000000003</v>
@@ -16906,9 +16922,9 @@
         <v>37.799999999999997</v>
       </c>
     </row>
-    <row r="200" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A200" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B200">
         <v>36.5</v>
@@ -16983,9 +16999,9 @@
         <v>36.799999999999997</v>
       </c>
     </row>
-    <row r="201" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A201" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B201">
         <v>36.5</v>
@@ -17060,9 +17076,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="202" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A202" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B202">
         <v>37</v>
@@ -17104,9 +17120,9 @@
         <v>37.4</v>
       </c>
     </row>
-    <row r="203" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A203" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B203">
         <v>36.799999999999997</v>
@@ -17181,9 +17197,9 @@
         <v>36.799999999999997</v>
       </c>
     </row>
-    <row r="204" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A204" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B204">
         <v>37.799999999999997</v>
@@ -17258,9 +17274,9 @@
         <v>37.1</v>
       </c>
     </row>
-    <row r="205" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A205" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B205">
         <v>38</v>
@@ -17335,9 +17351,9 @@
         <v>36.6</v>
       </c>
     </row>
-    <row r="206" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A206" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B206">
         <v>36.799999999999997</v>
@@ -17376,9 +17392,9 @@
         <v>36.799999999999997</v>
       </c>
     </row>
-    <row r="207" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A207" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B207">
         <v>36.799999999999997</v>
@@ -17453,9 +17469,9 @@
         <v>36.200000000000003</v>
       </c>
     </row>
-    <row r="208" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A208" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B208">
         <v>38.200000000000003</v>
@@ -17530,9 +17546,9 @@
         <v>36.9</v>
       </c>
     </row>
-    <row r="209" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A209" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B209">
         <v>36.799999999999997</v>
@@ -17607,9 +17623,9 @@
         <v>36.700000000000003</v>
       </c>
     </row>
-    <row r="210" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A210" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B210">
         <v>35.299999999999997</v>
@@ -17684,9 +17700,9 @@
         <v>37.299999999999997</v>
       </c>
     </row>
-    <row r="211" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A211" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B211">
         <v>37</v>
@@ -17755,9 +17771,9 @@
         <v>38.5</v>
       </c>
     </row>
-    <row r="212" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A212" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B212">
         <v>38.200000000000003</v>
@@ -17832,9 +17848,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="213" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A213" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B213">
         <v>37.799999999999997</v>
@@ -17909,9 +17925,9 @@
         <v>36.1</v>
       </c>
     </row>
-    <row r="214" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A214" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B214">
         <v>36.9</v>
@@ -17986,9 +18002,9 @@
         <v>36.6</v>
       </c>
     </row>
-    <row r="215" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A215" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B215">
         <v>38.299999999999997</v>
@@ -18063,9 +18079,9 @@
         <v>36.799999999999997</v>
       </c>
     </row>
-    <row r="216" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A216" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B216">
         <v>36.799999999999997</v>
@@ -18140,9 +18156,9 @@
         <v>38.299999999999997</v>
       </c>
     </row>
-    <row r="217" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A217" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B217">
         <v>36.5</v>
@@ -18163,9 +18179,9 @@
         <v>37.299999999999997</v>
       </c>
     </row>
-    <row r="218" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A218" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B218">
         <v>36.200000000000003</v>
@@ -18240,9 +18256,9 @@
         <v>36.6</v>
       </c>
     </row>
-    <row r="219" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A219" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B219">
         <v>36.299999999999997</v>
@@ -18278,9 +18294,9 @@
         <v>38.200000000000003</v>
       </c>
     </row>
-    <row r="220" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A220" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B220">
         <v>36.200000000000003</v>
@@ -18325,9 +18341,9 @@
         <v>36.799999999999997</v>
       </c>
     </row>
-    <row r="221" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A221" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B221">
         <v>37</v>
@@ -18402,9 +18418,9 @@
         <v>36.200000000000003</v>
       </c>
     </row>
-    <row r="222" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A222" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B222">
         <v>36.5</v>
@@ -18479,9 +18495,9 @@
         <v>36.700000000000003</v>
       </c>
     </row>
-    <row r="223" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A223" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B223">
         <v>37.6</v>
@@ -18556,9 +18572,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="224" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A224" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B224">
         <v>36.799999999999997</v>
@@ -18633,9 +18649,9 @@
         <v>36.200000000000003</v>
       </c>
     </row>
-    <row r="225" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A225" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B225">
         <v>36.799999999999997</v>
@@ -18710,9 +18726,9 @@
         <v>36.5</v>
       </c>
     </row>
-    <row r="226" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A226" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B226">
         <v>37.9</v>
@@ -18748,9 +18764,9 @@
         <v>36.799999999999997</v>
       </c>
     </row>
-    <row r="227" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A227" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B227">
         <v>36.299999999999997</v>
@@ -18825,9 +18841,9 @@
         <v>36.9</v>
       </c>
     </row>
-    <row r="228" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A228" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B228">
         <v>36.299999999999997</v>
@@ -18902,9 +18918,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="229" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A229" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B229">
         <v>36</v>
@@ -18979,9 +18995,9 @@
         <v>37.1</v>
       </c>
     </row>
-    <row r="230" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A230" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B230">
         <v>37.200000000000003</v>
@@ -19056,9 +19072,9 @@
         <v>36.799999999999997</v>
       </c>
     </row>
-    <row r="231" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A231" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B231">
         <v>39.299999999999997</v>
@@ -19133,9 +19149,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="232" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A232" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B232">
         <v>36.5</v>
@@ -19195,9 +19211,9 @@
         <v>36.4</v>
       </c>
     </row>
-    <row r="233" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A233" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B233">
         <v>38.200000000000003</v>
@@ -19272,9 +19288,9 @@
         <v>36.299999999999997</v>
       </c>
     </row>
-    <row r="234" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A234" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B234">
         <v>39.4</v>
@@ -19349,9 +19365,9 @@
         <v>37.200000000000003</v>
       </c>
     </row>
-    <row r="235" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A235" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B235">
         <v>36.6</v>
@@ -19426,9 +19442,9 @@
         <v>35.700000000000003</v>
       </c>
     </row>
-    <row r="236" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A236" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B236">
         <v>37.6</v>
@@ -19503,9 +19519,9 @@
         <v>36.5</v>
       </c>
     </row>
-    <row r="237" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A237" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B237">
         <v>36.799999999999997</v>
@@ -19580,9 +19596,9 @@
         <v>37.6</v>
       </c>
     </row>
-    <row r="238" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B238">
         <v>36.4</v>
@@ -19657,9 +19673,9 @@
         <v>35.9</v>
       </c>
     </row>
-    <row r="239" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B239">
         <v>37.4</v>
@@ -19734,9 +19750,9 @@
         <v>36.799999999999997</v>
       </c>
     </row>
-    <row r="240" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B240">
         <v>36.6</v>
@@ -19811,9 +19827,9 @@
         <v>36.4</v>
       </c>
     </row>
-    <row r="241" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B241">
         <v>39</v>
@@ -19888,9 +19904,9 @@
         <v>36.9</v>
       </c>
     </row>
-    <row r="242" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B242">
         <v>36</v>
@@ -19965,9 +19981,9 @@
         <v>36.6</v>
       </c>
     </row>
-    <row r="243" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B243">
         <v>36.1</v>
@@ -20042,9 +20058,9 @@
         <v>36.6</v>
       </c>
     </row>
-    <row r="244" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B244">
         <v>36.5</v>
@@ -20119,9 +20135,9 @@
         <v>37.4</v>
       </c>
     </row>
-    <row r="245" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B245">
         <v>36.700000000000003</v>
@@ -20154,9 +20170,9 @@
         <v>38.799999999999997</v>
       </c>
     </row>
-    <row r="246" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B246">
         <v>36.9</v>
@@ -20231,9 +20247,9 @@
         <v>37.4</v>
       </c>
     </row>
-    <row r="247" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B247">
         <v>37.5</v>
@@ -20308,9 +20324,9 @@
         <v>37.9</v>
       </c>
     </row>
-    <row r="248" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B248">
         <v>35.200000000000003</v>
@@ -20385,9 +20401,9 @@
         <v>36.700000000000003</v>
       </c>
     </row>
-    <row r="249" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B249">
         <v>36.5</v>
@@ -20462,9 +20478,9 @@
         <v>37.299999999999997</v>
       </c>
     </row>
-    <row r="250" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B250">
         <v>37.700000000000003</v>
@@ -20539,9 +20555,9 @@
         <v>37.700000000000003</v>
       </c>
     </row>
-    <row r="251" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B251">
         <v>37.5</v>
@@ -20568,9 +20584,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="252" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B252">
         <v>37.1</v>
@@ -20645,9 +20661,9 @@
         <v>36.9</v>
       </c>
     </row>
-    <row r="253" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B253">
         <v>36.200000000000003</v>
@@ -20722,9 +20738,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="254" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B254">
         <v>36.1</v>
@@ -20799,9 +20815,9 @@
         <v>36.4</v>
       </c>
     </row>
-    <row r="255" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B255">
         <v>36</v>
@@ -20876,9 +20892,9 @@
         <v>37.200000000000003</v>
       </c>
     </row>
-    <row r="256" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B256">
         <v>36.5</v>
@@ -20953,9 +20969,9 @@
         <v>36.5</v>
       </c>
     </row>
-    <row r="257" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B257">
         <v>35.4</v>
@@ -21030,9 +21046,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="258" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B258">
         <v>38</v>
@@ -21068,9 +21084,9 @@
         <v>36.1</v>
       </c>
     </row>
-    <row r="259" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B259">
         <v>36.9</v>
@@ -21145,9 +21161,9 @@
         <v>36.799999999999997</v>
       </c>
     </row>
-    <row r="260" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B260">
         <v>37.4</v>
@@ -21186,9 +21202,9 @@
         <v>37.4</v>
       </c>
     </row>
-    <row r="261" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B261">
         <v>36</v>
@@ -21263,9 +21279,9 @@
         <v>36.9</v>
       </c>
     </row>
-    <row r="262" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B262">
         <v>38.6</v>
@@ -21322,9 +21338,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="263" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B263">
         <v>37.1</v>
@@ -21399,9 +21415,9 @@
         <v>36.700000000000003</v>
       </c>
     </row>
-    <row r="264" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B264">
         <v>37.6</v>
@@ -21440,9 +21456,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="265" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B265">
         <v>37.9</v>
@@ -21517,9 +21533,9 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="266" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B266">
         <v>36.799999999999997</v>
@@ -21594,9 +21610,9 @@
         <v>38.299999999999997</v>
       </c>
     </row>
-    <row r="267" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B267">
         <v>37</v>
@@ -21671,9 +21687,9 @@
         <v>36.799999999999997</v>
       </c>
     </row>
-    <row r="268" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B268">
         <v>36.799999999999997</v>
@@ -21748,9 +21764,9 @@
         <v>38.299999999999997</v>
       </c>
     </row>
-    <row r="269" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B269">
         <v>36.1</v>
@@ -21825,9 +21841,9 @@
         <v>37.799999999999997</v>
       </c>
     </row>
-    <row r="270" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B270">
         <v>37</v>
@@ -21902,9 +21918,9 @@
         <v>39.5</v>
       </c>
     </row>
-    <row r="271" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B271">
         <v>36.5</v>
@@ -21922,9 +21938,9 @@
         <v>37.299999999999997</v>
       </c>
     </row>
-    <row r="272" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B272">
         <v>36.799999999999997</v>
@@ -21999,9 +22015,9 @@
         <v>37.1</v>
       </c>
     </row>
-    <row r="273" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B273">
         <v>37</v>
@@ -22076,9 +22092,9 @@
         <v>36.5</v>
       </c>
     </row>
-    <row r="274" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B274">
         <v>37</v>
@@ -22153,9 +22169,9 @@
         <v>38.299999999999997</v>
       </c>
     </row>
-    <row r="275" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B275">
         <v>39.6</v>
@@ -22230,9 +22246,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="276" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B276">
         <v>36.4</v>
@@ -22307,9 +22323,9 @@
         <v>37.1</v>
       </c>
     </row>
-    <row r="277" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B277">
         <v>36.200000000000003</v>
@@ -22384,9 +22400,9 @@
         <v>36.9</v>
       </c>
     </row>
-    <row r="278" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B278">
         <v>37.4</v>
@@ -22458,12 +22474,12 @@
         <v>35.799999999999997</v>
       </c>
       <c r="Y278" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="279" spans="1:25" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="279" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B279">
         <v>36.6</v>
@@ -22538,9 +22554,9 @@
         <v>37.9</v>
       </c>
     </row>
-    <row r="280" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B280">
         <v>38</v>
@@ -22615,9 +22631,9 @@
         <v>38.200000000000003</v>
       </c>
     </row>
-    <row r="281" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B281">
         <v>39</v>
@@ -22692,9 +22708,9 @@
         <v>37.700000000000003</v>
       </c>
     </row>
-    <row r="282" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B282">
         <v>36.6</v>
@@ -22769,9 +22785,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="283" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B283">
         <v>36.5</v>
@@ -22846,9 +22862,9 @@
         <v>36.6</v>
       </c>
     </row>
-    <row r="284" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B284">
         <v>36.1</v>
@@ -22923,9 +22939,9 @@
         <v>36.799999999999997</v>
       </c>
     </row>
-    <row r="285" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B285">
         <v>37.4</v>
@@ -23000,9 +23016,9 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="286" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B286">
         <v>36.5</v>
@@ -23077,9 +23093,9 @@
         <v>36.6</v>
       </c>
     </row>
-    <row r="287" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B287">
         <v>35.700000000000003</v>
@@ -23100,9 +23116,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="288" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B288">
         <v>36.299999999999997</v>
@@ -23162,9 +23178,9 @@
         <v>38.5</v>
       </c>
     </row>
-    <row r="289" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B289">
         <v>39.1</v>
@@ -23239,9 +23255,9 @@
         <v>36.5</v>
       </c>
     </row>
-    <row r="290" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B290">
         <v>37.200000000000003</v>
@@ -23316,9 +23332,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="291" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B291">
         <v>38.299999999999997</v>
@@ -23393,9 +23409,9 @@
         <v>37.200000000000003</v>
       </c>
     </row>
-    <row r="292" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B292">
         <v>36.700000000000003</v>
@@ -23431,9 +23447,9 @@
         <v>36.5</v>
       </c>
     </row>
-    <row r="293" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B293">
         <v>37.299999999999997</v>
@@ -23508,9 +23524,9 @@
         <v>36.5</v>
       </c>
     </row>
-    <row r="294" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B294">
         <v>38</v>
@@ -23585,9 +23601,9 @@
         <v>36.799999999999997</v>
       </c>
     </row>
-    <row r="295" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B295">
         <v>39</v>
@@ -23662,9 +23678,9 @@
         <v>38.5</v>
       </c>
     </row>
-    <row r="296" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B296">
         <v>36.5</v>
@@ -23739,9 +23755,9 @@
         <v>36.799999999999997</v>
       </c>
     </row>
-    <row r="297" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B297">
         <v>38.200000000000003</v>
@@ -23816,9 +23832,9 @@
         <v>39.200000000000003</v>
       </c>
     </row>
-    <row r="298" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B298">
         <v>36.200000000000003</v>
@@ -23893,9 +23909,9 @@
         <v>36.799999999999997</v>
       </c>
     </row>
-    <row r="299" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B299">
         <v>36.799999999999997</v>
@@ -23970,9 +23986,9 @@
         <v>36.9</v>
       </c>
     </row>
-    <row r="300" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B300">
         <v>36.799999999999997</v>
@@ -24020,9 +24036,9 @@
         <v>36.799999999999997</v>
       </c>
     </row>
-    <row r="301" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B301">
         <v>37.299999999999997</v>
@@ -24097,9 +24113,9 @@
         <v>36.1</v>
       </c>
     </row>
-    <row r="302" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B302">
         <v>37.9</v>
@@ -24174,9 +24190,9 @@
         <v>37.1</v>
       </c>
     </row>
-    <row r="303" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B303">
         <v>36</v>
@@ -24224,9 +24240,9 @@
         <v>37.799999999999997</v>
       </c>
     </row>
-    <row r="304" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B304">
         <v>36.299999999999997</v>
@@ -24301,9 +24317,9 @@
         <v>38.200000000000003</v>
       </c>
     </row>
-    <row r="305" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B305">
         <v>36.9</v>
@@ -24354,9 +24370,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="306" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B306">
         <v>37.1</v>
@@ -24374,9 +24390,9 @@
         <v>36.5</v>
       </c>
     </row>
-    <row r="307" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B307">
         <v>37.5</v>
@@ -24451,9 +24467,9 @@
         <v>36.799999999999997</v>
       </c>
     </row>
-    <row r="308" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B308">
         <v>37.299999999999997</v>
@@ -24528,9 +24544,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="309" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B309">
         <v>37.4</v>
@@ -24605,9 +24621,9 @@
         <v>37.4</v>
       </c>
     </row>
-    <row r="310" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B310">
         <v>37</v>
@@ -24682,9 +24698,9 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="311" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B311">
         <v>37.299999999999997</v>
@@ -24759,9 +24775,9 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="312" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B312">
         <v>38.700000000000003</v>
@@ -24836,9 +24852,9 @@
         <v>36.6</v>
       </c>
     </row>
-    <row r="313" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B313">
         <v>36</v>
@@ -24913,9 +24929,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="314" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B314">
         <v>35.799999999999997</v>
@@ -24966,9 +24982,9 @@
         <v>37.1</v>
       </c>
     </row>
-    <row r="315" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B315">
         <v>38</v>
@@ -25043,9 +25059,9 @@
         <v>36.700000000000003</v>
       </c>
     </row>
-    <row r="316" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B316">
         <v>38.9</v>
@@ -25120,9 +25136,9 @@
         <v>37.4</v>
       </c>
     </row>
-    <row r="317" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B317">
         <v>36</v>
@@ -25161,9 +25177,9 @@
         <v>36.700000000000003</v>
       </c>
     </row>
-    <row r="318" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B318">
         <v>36.299999999999997</v>
@@ -25238,9 +25254,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="319" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B319">
         <v>38.200000000000003</v>
@@ -25315,9 +25331,9 @@
         <v>38.5</v>
       </c>
     </row>
-    <row r="320" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B320">
         <v>36</v>
@@ -25392,9 +25408,9 @@
         <v>36.6</v>
       </c>
     </row>
-    <row r="321" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B321">
         <v>37</v>
@@ -25469,9 +25485,9 @@
         <v>35.4</v>
       </c>
     </row>
-    <row r="322" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B322">
         <v>37</v>
@@ -25546,9 +25562,9 @@
         <v>36.799999999999997</v>
       </c>
     </row>
-    <row r="323" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B323">
         <v>36.700000000000003</v>
@@ -25623,9 +25639,9 @@
         <v>37.1</v>
       </c>
     </row>
-    <row r="324" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B324">
         <v>37.200000000000003</v>
@@ -25676,9 +25692,9 @@
         <v>36.200000000000003</v>
       </c>
     </row>
-    <row r="325" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B325">
         <v>35</v>
@@ -25753,9 +25769,9 @@
         <v>37.9</v>
       </c>
     </row>
-    <row r="326" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B326">
         <v>38</v>
@@ -25830,9 +25846,9 @@
         <v>36.1</v>
       </c>
     </row>
-    <row r="327" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B327">
         <v>36.4</v>
